--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H2">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I2">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J2">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N2">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O2">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P2">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q2">
-        <v>53.670791737568</v>
+        <v>55.0173060797195</v>
       </c>
       <c r="R2">
-        <v>53.670791737568</v>
+        <v>220.069224318878</v>
       </c>
       <c r="S2">
-        <v>0.001492786770430091</v>
+        <v>0.00130771732721188</v>
       </c>
       <c r="T2">
-        <v>0.001492786770430091</v>
+        <v>0.0006881223779407304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H3">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I3">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J3">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N3">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O3">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P3">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q3">
-        <v>2363.600491715157</v>
+        <v>2558.85141122769</v>
       </c>
       <c r="R3">
-        <v>2363.600491715157</v>
+        <v>15353.10846736614</v>
       </c>
       <c r="S3">
-        <v>0.06574062782354484</v>
+        <v>0.06082184982620441</v>
       </c>
       <c r="T3">
-        <v>0.06574062782354484</v>
+        <v>0.04800679213572199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H4">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I4">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J4">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N4">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O4">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P4">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q4">
-        <v>482.8928580155769</v>
+        <v>983.4343217972652</v>
       </c>
       <c r="R4">
-        <v>482.8928580155769</v>
+        <v>5900.60593078359</v>
       </c>
       <c r="S4">
-        <v>0.01343106830816977</v>
+        <v>0.02337544664447344</v>
       </c>
       <c r="T4">
-        <v>0.01343106830816977</v>
+        <v>0.01845028080118368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H5">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I5">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J5">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N5">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O5">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P5">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q5">
-        <v>2352.347773487297</v>
+        <v>2419.844385142124</v>
       </c>
       <c r="R5">
-        <v>2352.347773487297</v>
+        <v>14519.06631085274</v>
       </c>
       <c r="S5">
-        <v>0.06542764736698548</v>
+        <v>0.05751776408356755</v>
       </c>
       <c r="T5">
-        <v>0.06542764736698548</v>
+        <v>0.04539887149702693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H6">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I6">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J6">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N6">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O6">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P6">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q6">
-        <v>83.26548467305108</v>
+        <v>91.31178230083032</v>
       </c>
       <c r="R6">
-        <v>83.26548467305108</v>
+        <v>547.8706938049819</v>
       </c>
       <c r="S6">
-        <v>0.002315926594881503</v>
+        <v>0.002170407975271836</v>
       </c>
       <c r="T6">
-        <v>0.002315926594881503</v>
+        <v>0.001713106799880613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H7">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I7">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J7">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N7">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O7">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P7">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q7">
-        <v>1286.237183118802</v>
+        <v>1414.243199060122</v>
       </c>
       <c r="R7">
-        <v>1286.237183118802</v>
+        <v>5656.972796240488</v>
       </c>
       <c r="S7">
-        <v>0.03577509830642232</v>
+        <v>0.03361542881839173</v>
       </c>
       <c r="T7">
-        <v>0.03577509830642232</v>
+        <v>0.01768847772578396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J8">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N8">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O8">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P8">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q8">
-        <v>112.0615759660432</v>
+        <v>120.3623709911938</v>
       </c>
       <c r="R8">
-        <v>112.0615759660432</v>
+        <v>722.1742259471631</v>
       </c>
       <c r="S8">
-        <v>0.003116854301192691</v>
+        <v>0.002860917215056256</v>
       </c>
       <c r="T8">
-        <v>0.003116854301192691</v>
+        <v>0.002258126947029181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J9">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N9">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O9">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P9">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q9">
-        <v>4935.06407266794</v>
+        <v>5598.046229730946</v>
       </c>
       <c r="R9">
-        <v>4935.06407266794</v>
+        <v>50382.41606757852</v>
       </c>
       <c r="S9">
-        <v>0.1372627106923571</v>
+        <v>0.1330610779550844</v>
       </c>
       <c r="T9">
-        <v>0.1372627106923571</v>
+        <v>0.1575380113149578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H10">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I10">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J10">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N10">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O10">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P10">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q10">
-        <v>1008.252961062511</v>
+        <v>2151.477328136002</v>
       </c>
       <c r="R10">
-        <v>1008.252961062511</v>
+        <v>19363.29595322402</v>
       </c>
       <c r="S10">
-        <v>0.02804331057534133</v>
+        <v>0.05113889395148143</v>
       </c>
       <c r="T10">
-        <v>0.02804331057534133</v>
+        <v>0.06054602726638339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H11">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I11">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J11">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N11">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O11">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P11">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q11">
-        <v>4911.569033789408</v>
+        <v>5293.938005677769</v>
       </c>
       <c r="R11">
-        <v>4911.569033789408</v>
+        <v>47645.44205109993</v>
       </c>
       <c r="S11">
-        <v>0.1366092252103446</v>
+        <v>0.1258326688911123</v>
       </c>
       <c r="T11">
-        <v>0.1366092252103446</v>
+        <v>0.1489799174951138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H12">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I12">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J12">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N12">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O12">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P12">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q12">
-        <v>173.8536200781847</v>
+        <v>199.7644632260719</v>
       </c>
       <c r="R12">
-        <v>173.8536200781847</v>
+        <v>1797.880169034647</v>
       </c>
       <c r="S12">
-        <v>0.004835523673902362</v>
+        <v>0.004748241390506965</v>
       </c>
       <c r="T12">
-        <v>0.004835523673902362</v>
+        <v>0.005621692815056999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H13">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I13">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J13">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N13">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O13">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P13">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q13">
-        <v>2685.590451342734</v>
+        <v>3093.965821416225</v>
       </c>
       <c r="R13">
-        <v>2685.590451342734</v>
+        <v>18563.79492849735</v>
       </c>
       <c r="S13">
-        <v>0.07469638078306223</v>
+        <v>0.07354109102697023</v>
       </c>
       <c r="T13">
-        <v>0.07469638078306223</v>
+        <v>0.05804611139671232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H14">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I14">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J14">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N14">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O14">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P14">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q14">
-        <v>23.03952513832031</v>
+        <v>24.63002543594633</v>
       </c>
       <c r="R14">
-        <v>23.03952513832031</v>
+        <v>147.780152615678</v>
       </c>
       <c r="S14">
-        <v>0.0006408159300434149</v>
+        <v>0.000585435989642708</v>
       </c>
       <c r="T14">
-        <v>0.0006408159300434149</v>
+        <v>0.0004620856475733082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H15">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I15">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J15">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N15">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O15">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P15">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q15">
-        <v>1014.634425593909</v>
+        <v>1145.540918597927</v>
       </c>
       <c r="R15">
-        <v>1014.634425593909</v>
+        <v>10309.86826738134</v>
       </c>
       <c r="S15">
-        <v>0.02822080312799488</v>
+        <v>0.02722859069308252</v>
       </c>
       <c r="T15">
-        <v>0.02822080312799488</v>
+        <v>0.03223736117743724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H16">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I16">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J16">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N16">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O16">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P16">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q16">
-        <v>207.2937957719303</v>
+        <v>440.2616937541767</v>
       </c>
       <c r="R16">
-        <v>207.2937957719303</v>
+        <v>3962.355243787591</v>
       </c>
       <c r="S16">
-        <v>0.005765620850790837</v>
+        <v>0.01046466805546148</v>
       </c>
       <c r="T16">
-        <v>0.005765620850790837</v>
+        <v>0.01238967111843974</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H17">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I17">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J17">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N17">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O17">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P17">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q17">
-        <v>1009.80391581211</v>
+        <v>1083.310561784349</v>
       </c>
       <c r="R17">
-        <v>1009.80391581211</v>
+        <v>9749.795056059143</v>
       </c>
       <c r="S17">
-        <v>0.02808644846574281</v>
+        <v>0.02574942492357401</v>
       </c>
       <c r="T17">
-        <v>0.02808644846574281</v>
+        <v>0.03048609899532725</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H18">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I18">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J18">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N18">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O18">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P18">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q18">
-        <v>35.74378475092184</v>
+        <v>40.87825596935355</v>
       </c>
       <c r="R18">
-        <v>35.74378475092184</v>
+        <v>367.904303724182</v>
       </c>
       <c r="S18">
-        <v>0.0009941692170702225</v>
+        <v>0.0009716434236141475</v>
       </c>
       <c r="T18">
-        <v>0.0009941692170702225</v>
+        <v>0.001150379773077593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H19">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I19">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J19">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N19">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O19">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P19">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q19">
-        <v>552.1493712857751</v>
+        <v>633.1252554422147</v>
       </c>
       <c r="R19">
-        <v>552.1493712857751</v>
+        <v>3798.751532653288</v>
       </c>
       <c r="S19">
-        <v>0.0153573526693431</v>
+        <v>0.01504888054019844</v>
       </c>
       <c r="T19">
-        <v>0.0153573526693431</v>
+        <v>0.01187810765428839</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H20">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I20">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J20">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N20">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O20">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P20">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q20">
-        <v>29.49147923771202</v>
+        <v>30.12338902909233</v>
       </c>
       <c r="R20">
-        <v>29.49147923771202</v>
+        <v>180.740334174554</v>
       </c>
       <c r="S20">
-        <v>0.0008202690629520628</v>
+        <v>0.0007160088451188146</v>
       </c>
       <c r="T20">
-        <v>0.0008202690629520628</v>
+        <v>0.0005651470301080508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H21">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I21">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J21">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N21">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O21">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P21">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q21">
-        <v>1298.771129900647</v>
+        <v>1401.03691039259</v>
       </c>
       <c r="R21">
-        <v>1298.771129900647</v>
+        <v>12609.33219353331</v>
       </c>
       <c r="S21">
-        <v>0.03612371455245612</v>
+        <v>0.03330152590766634</v>
       </c>
       <c r="T21">
-        <v>0.03612371455245612</v>
+        <v>0.03942742871073242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H22">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I22">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J22">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N22">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O22">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P22">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q22">
-        <v>265.3440397496012</v>
+        <v>538.4555655475967</v>
       </c>
       <c r="R22">
-        <v>265.3440397496012</v>
+        <v>4846.100089928371</v>
       </c>
       <c r="S22">
-        <v>0.007380216675160782</v>
+        <v>0.01279865778924112</v>
       </c>
       <c r="T22">
-        <v>0.007380216675160782</v>
+        <v>0.01515300436915403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H23">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I23">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J23">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N23">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O23">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P23">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q23">
-        <v>1292.587891397152</v>
+        <v>1324.926991115821</v>
       </c>
       <c r="R23">
-        <v>1292.587891397152</v>
+        <v>11924.34292004239</v>
       </c>
       <c r="S23">
-        <v>0.03595173541189185</v>
+        <v>0.03149245404822798</v>
       </c>
       <c r="T23">
-        <v>0.03595173541189185</v>
+        <v>0.03728557335045964</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H24">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I24">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J24">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N24">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O24">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P24">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q24">
-        <v>45.75342067731135</v>
+        <v>49.99554753193622</v>
       </c>
       <c r="R24">
-        <v>45.75342067731135</v>
+        <v>449.959927787426</v>
       </c>
       <c r="S24">
-        <v>0.001272574875045208</v>
+        <v>0.001188354146170355</v>
       </c>
       <c r="T24">
-        <v>0.001272574875045208</v>
+        <v>0.001406954999934365</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H25">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I25">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J25">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N25">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O25">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P25">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q25">
-        <v>706.7724539298966</v>
+        <v>774.3344976816308</v>
       </c>
       <c r="R25">
-        <v>706.7724539298966</v>
+        <v>4646.006986089785</v>
       </c>
       <c r="S25">
-        <v>0.0196580027007958</v>
+        <v>0.01840531119806036</v>
       </c>
       <c r="T25">
-        <v>0.0196580027007958</v>
+        <v>0.01452734422585548</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H26">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I26">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J26">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N26">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O26">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P26">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q26">
-        <v>39.89797217278243</v>
+        <v>43.44666166006466</v>
       </c>
       <c r="R26">
-        <v>39.89797217278243</v>
+        <v>260.679969960388</v>
       </c>
       <c r="S26">
-        <v>0.001109712808369619</v>
+        <v>0.001032692371016002</v>
       </c>
       <c r="T26">
-        <v>0.001109712808369619</v>
+        <v>0.0008151058893666158</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H27">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I27">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J27">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N27">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O27">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P27">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q27">
-        <v>1757.061216967607</v>
+        <v>2020.701474203393</v>
       </c>
       <c r="R27">
-        <v>1757.061216967607</v>
+        <v>18186.31326783053</v>
       </c>
       <c r="S27">
-        <v>0.04887048717951132</v>
+        <v>0.04803045658232343</v>
       </c>
       <c r="T27">
-        <v>0.04887048717951132</v>
+        <v>0.05686578471191115</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H28">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I28">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J28">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N28">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O28">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P28">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q28">
-        <v>358.9745034086187</v>
+        <v>776.6090579227935</v>
       </c>
       <c r="R28">
-        <v>358.9745034086187</v>
+        <v>6989.481521305141</v>
       </c>
       <c r="S28">
-        <v>0.009984432356249413</v>
+        <v>0.01845937567433344</v>
       </c>
       <c r="T28">
-        <v>0.009984432356249413</v>
+        <v>0.0218550261168922</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H29">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I29">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J29">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N29">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O29">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P29">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q29">
-        <v>1748.696133759619</v>
+        <v>1910.928901515802</v>
       </c>
       <c r="R29">
-        <v>1748.696133759619</v>
+        <v>17198.36011364222</v>
       </c>
       <c r="S29">
-        <v>0.04863782272381465</v>
+        <v>0.04542125039639745</v>
       </c>
       <c r="T29">
-        <v>0.04863782272381465</v>
+        <v>0.05377660822274866</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H30">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I30">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J30">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N30">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O30">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P30">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q30">
-        <v>61.89817371583963</v>
+        <v>72.10807641968576</v>
       </c>
       <c r="R30">
-        <v>61.89817371583963</v>
+        <v>648.9726877771719</v>
       </c>
       <c r="S30">
-        <v>0.001721621236530243</v>
+        <v>0.001713951257978828</v>
       </c>
       <c r="T30">
-        <v>0.001721621236530243</v>
+        <v>0.002029237075351961</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H31">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I31">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J31">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N31">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O31">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P31">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q31">
-        <v>956.1672872388566</v>
+        <v>1116.814874315741</v>
       </c>
       <c r="R31">
-        <v>956.1672872388566</v>
+        <v>6700.889245894447</v>
       </c>
       <c r="S31">
-        <v>0.02659461190152497</v>
+        <v>0.02654579561410069</v>
       </c>
       <c r="T31">
-        <v>0.02659461190152497</v>
+        <v>0.02095264277171722</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H32">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I32">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J32">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N32">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O32">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P32">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q32">
-        <v>33.23768020181191</v>
+        <v>34.10847636541125</v>
       </c>
       <c r="R32">
-        <v>33.23768020181191</v>
+        <v>136.433905461645</v>
       </c>
       <c r="S32">
-        <v>0.0009244650149314022</v>
+        <v>0.0008107311812616578</v>
       </c>
       <c r="T32">
-        <v>0.0009244650149314022</v>
+        <v>0.0004266076901419534</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H33">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I33">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J33">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N33">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O33">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P33">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q33">
-        <v>1463.749550269512</v>
+        <v>1586.383069283568</v>
       </c>
       <c r="R33">
-        <v>1463.749550269512</v>
+        <v>9518.298415701405</v>
       </c>
       <c r="S33">
-        <v>0.04071238551034528</v>
+        <v>0.03770705574518131</v>
       </c>
       <c r="T33">
-        <v>0.04071238551034528</v>
+        <v>0.02976224485742455</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H34">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I34">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J34">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N34">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O34">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P34">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q34">
-        <v>299.0497786010116</v>
+        <v>609.6889999185377</v>
       </c>
       <c r="R34">
-        <v>299.0497786010116</v>
+        <v>3658.133999511225</v>
       </c>
       <c r="S34">
-        <v>0.008317700163218545</v>
+        <v>0.01449181950582374</v>
       </c>
       <c r="T34">
-        <v>0.008317700163218545</v>
+        <v>0.01143841840839153</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H35">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I35">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J35">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N35">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O35">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P35">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q35">
-        <v>1456.780876289677</v>
+        <v>1500.20440657341</v>
       </c>
       <c r="R35">
-        <v>1456.780876289677</v>
+        <v>9001.226439440459</v>
       </c>
       <c r="S35">
-        <v>0.04051856045228756</v>
+        <v>0.03565865791380213</v>
       </c>
       <c r="T35">
-        <v>0.04051856045228756</v>
+        <v>0.02814544087689326</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H36">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I36">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J36">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N36">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O36">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P36">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q36">
-        <v>51.56532001510493</v>
+        <v>56.60956506991749</v>
       </c>
       <c r="R36">
-        <v>51.56532001510493</v>
+        <v>339.657390419505</v>
       </c>
       <c r="S36">
-        <v>0.001434225675446141</v>
+        <v>0.001345564048893848</v>
       </c>
       <c r="T36">
-        <v>0.001434225675446141</v>
+        <v>0.001062056050335991</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H37">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I37">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J37">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N37">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O37">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P37">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q37">
-        <v>796.5513228353831</v>
+        <v>876.7728587108551</v>
       </c>
       <c r="R37">
-        <v>796.5513228353831</v>
+        <v>3507.09143484342</v>
       </c>
       <c r="S37">
-        <v>0.02215509103184938</v>
+        <v>0.02084018904349677</v>
       </c>
       <c r="T37">
-        <v>0.02215509103184938</v>
+        <v>0.01096613170364596</v>
       </c>
     </row>
   </sheetData>
